--- a/medicine/Psychotrope/Musée_du_Vin_(Paris)/Musée_du_Vin_(Paris).xlsx
+++ b/medicine/Psychotrope/Musée_du_Vin_(Paris)/Musée_du_Vin_(Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du Vin est un musée situé 5, square Charles-Dickens, rue des Eaux, dans le 16e arrondissement de Paris. Il témoigne de la richesse et de la diversité du patrimoine français à travers une exposition d'outils et d'objets se rapportant aux travaux de la vigne et du vin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois, la colline où serpentent les galeries du musée du Vin était recouverte par l’immense forêt de Rouvray. Vers le VIe siècle se développe sur les hauteurs de Chaillot le village de Nigeon, avec ses cultures, vignes et carrières.
-À partir de 1493, saint François de Paule, ermite italien, crée l’ordre des Minimes. Le domaine de cette communauté s’étend alors jusqu’à l’actuelle rue des Eaux. L’édification de l’abbaye de Passy commence. Les moines cultivent quelques arpents dans un clos, dont la rue Vineuse et la rue des Vignes rappellent aujourd'hui l’existence. Dans l’épaisseur de la colline, dans les carrières existantes, ils aménagent les celliers de l’abbaye[1].
+À partir de 1493, saint François de Paule, ermite italien, crée l’ordre des Minimes. Le domaine de cette communauté s’étend alors jusqu’à l’actuelle rue des Eaux. L’édification de l’abbaye de Passy commence. Les moines cultivent quelques arpents dans un clos, dont la rue Vineuse et la rue des Vignes rappellent aujourd'hui l’existence. Dans l’épaisseur de la colline, dans les carrières existantes, ils aménagent les celliers de l’abbaye.
 La rue des Eaux est ouverte au XVIIe siècle. Son nom évoque les sources d’eaux minérales découvertes à cet endroit et en grande vogue jusqu'en 1785. Aujourd'hui encore, les visiteurs peuvent observer un puits éclair à margelle carrée.
 La Révolution de 1789 supprimera les ordres religieux en 1790 et mettra fin à la vie de l’abbaye, qui sera progressivement détruite.
-Le musée du Vin ouvre au public en 1984[2].
-Il abrite Le M, un restaurant festif rénové en 2023[2], ainsi qu'une boutique qui commercialise des vins fins et des articles autour du monde du vin.
+Le musée du Vin ouvre au public en 1984.
+Il abrite Le M, un restaurant festif rénové en 2023, ainsi qu'une boutique qui commercialise des vins fins et des articles autour du monde du vin.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Descriptif du lieu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée du Vin est implanté dans d’anciennes carrières du Moyen Âge, qui ont servi de celliers à partir du XVe siècle[3],[4]. Les frères du couvent des Minimes (Passy) produisaient alors un vin très apprécié du roi Louis XIII, à partir des récoltes viticoles du flanc des coteaux de la Seine.
-Le musée du Vin est la propriété du Conseil des échansons de France, une confrérie bachique regroupant des amateurs-puristes du vin, en France et à l'étranger, et ayant pour objectif à travers ce musée de « défendre et promouvoir les meilleurs vins d’appellation d’origine contrôlée »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du Vin est implanté dans d’anciennes carrières du Moyen Âge, qui ont servi de celliers à partir du XVe siècle,. Les frères du couvent des Minimes (Passy) produisaient alors un vin très apprécié du roi Louis XIII, à partir des récoltes viticoles du flanc des coteaux de la Seine.
+Le musée du Vin est la propriété du Conseil des échansons de France, une confrérie bachique regroupant des amateurs-puristes du vin, en France et à l'étranger, et ayant pour objectif à travers ce musée de « défendre et promouvoir les meilleurs vins d’appellation d’origine contrôlée ».
 			Vue panoramique du musée du vin.
 			Scène du musée du Vin : méthode champagne.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Particularité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réhabilités après 1950, les anciens celliers du couvent des Minimes servirent un temps de caves au restaurant de la tour Eiffel, avant de devenir le musée du Vin, propriété depuis 1984 du Conseil des échansons de France. Cette confrérie, créée en 1954, a pour vocation de défendre et de promouvoir les meilleures appellations viticoles des terroirs de France[2]. Dans ce but, elle organise en France, à l’étranger et dans ce musée, de nombreuses manifestations de prestige. Elle rassemble à travers le monde plusieurs milliers de professionnels et d’amateurs qui veillent au maintien du savoir-faire et de la qualité qui font la renommée universelle des vins français.
-Le Conseil des échansons de France anime le musée en offrant au public, sur les thèmes de la vigne et du vin, un large éventail d’activités culturelles et de manifestations, ainsi que la visite des galeries où sont exposées la collection du musée sous la butte de Passy[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réhabilités après 1950, les anciens celliers du couvent des Minimes servirent un temps de caves au restaurant de la tour Eiffel, avant de devenir le musée du Vin, propriété depuis 1984 du Conseil des échansons de France. Cette confrérie, créée en 1954, a pour vocation de défendre et de promouvoir les meilleures appellations viticoles des terroirs de France. Dans ce but, elle organise en France, à l’étranger et dans ce musée, de nombreuses manifestations de prestige. Elle rassemble à travers le monde plusieurs milliers de professionnels et d’amateurs qui veillent au maintien du savoir-faire et de la qualité qui font la renommée universelle des vins français.
+Le Conseil des échansons de France anime le musée en offrant au public, sur les thèmes de la vigne et du vin, un large éventail d’activités culturelles et de manifestations, ainsi que la visite des galeries où sont exposées la collection du musée sous la butte de Passy.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une collection de plus de 2 200 pièces est présentée sur les outils de culture de la vigne, de vinification et de dégustation du vin[3]. Elles vont du Ier  avant J.-C. au XIXe siècle. Des mannequins de cire, certains historiques comme Napoléon, Pasteur ou Balzac, mettent en scène les objets de la collection.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une collection de plus de 2 200 pièces est présentée sur les outils de culture de la vigne, de vinification et de dégustation du vin. Elles vont du Ier  avant J.-C. au XIXe siècle. Des mannequins de cire, certains historiques comme Napoléon, Pasteur ou Balzac, mettent en scène les objets de la collection.
 </t>
         </is>
       </c>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Jumelage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du Vin de Paris est jumelé avec le musée valaisan de la vigne et du vin en Suisse. La cérémonie officialisant ce jumelage s'est déroulée en mars 2010 au musée du Vin de Paris.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Vin_(Paris)</t>
+          <t>Musée_du_Vin_(Paris)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Activité commerciale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée complète son activité par de la restauration et l'organisation d'événements.
 </t>
